--- a/data/Autocoup.xlsx
+++ b/data/Autocoup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingengdu/GitHub/QuartoPub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC30005B-DCEF-CC40-8A30-703130D410EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B66C42-28E6-5F4E-BC89-55E48BBB2B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="680" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/Autocoup.xlsx
+++ b/data/Autocoup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingengdu/GitHub/QuartoPub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B2AD18-8355-9C43-8220-B7D173003A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E598F2E-7AAB-394D-B9EF-4BADA9013DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="680" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1180" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autocoup" sheetId="6" r:id="rId1"/>
@@ -3732,7 +3732,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -3889,7 +3889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4033,46 +4033,25 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4081,10 +4060,13 @@
     <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4098,36 +4080,12 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
+      <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
     </dxf>
     <dxf>
       <font>
@@ -4232,12 +4190,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A9D28B0-D766-A24F-90C8-E99347710297}" name="Table1" displayName="Table1" ref="A1:AM280" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A9D28B0-D766-A24F-90C8-E99347710297}" name="Table1" displayName="Table1" ref="A1:AM280" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:AM280" xr:uid="{3A9D28B0-D766-A24F-90C8-E99347710297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM280">
     <sortCondition ref="D1:D280"/>
@@ -4273,8 +4227,8 @@
     <tableColumn id="28" xr3:uid="{367D4359-897C-F04D-82F3-4F0274D36A3C}" name="why"/>
     <tableColumn id="29" xr3:uid="{0E549C90-FD0D-044D-AAC2-8B64737DCB73}" name="notes"/>
     <tableColumn id="30" xr3:uid="{A1E32119-A2B5-0544-AF24-E903F589295B}" name="iso3n"/>
-    <tableColumn id="31" xr3:uid="{2CFFC7B2-EFA7-A749-B0A7-19A085FC1707}" name="sdate" dataDxfId="4"/>
-    <tableColumn id="32" xr3:uid="{FD7424A4-087F-6444-9823-8802229382A2}" name="edate" dataDxfId="3"/>
+    <tableColumn id="31" xr3:uid="{2CFFC7B2-EFA7-A749-B0A7-19A085FC1707}" name="sdate" dataDxfId="1"/>
+    <tableColumn id="32" xr3:uid="{FD7424A4-087F-6444-9823-8802229382A2}" name="edate" dataDxfId="0"/>
     <tableColumn id="33" xr3:uid="{08E0829E-B1BC-AB42-B3D0-7016CFFEF689}" name="entrypolity2"/>
     <tableColumn id="34" xr3:uid="{FD38F9D2-20CB-8545-A4AE-FDF709C15DFA}" name="bigwhy"/>
     <tableColumn id="35" xr3:uid="{058ACC6D-D979-D04E-8E66-4B9B3D45424B}" name="rulercountry"/>
@@ -4784,20 +4738,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="71" customFormat="1" ht="17">
+    <row r="2" spans="1:41" s="65" customFormat="1" ht="17">
       <c r="A2" s="25">
         <v>581</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="63" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="59">
         <v>28788</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="59">
         <v>32838</v>
       </c>
       <c r="F2" s="25">
@@ -4810,19 +4764,19 @@
       <c r="I2" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="60" t="s">
         <v>318</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="60" t="s">
         <v>1024</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="60" t="s">
         <v>1194</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="60" t="s">
         <v>1200</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="60" t="s">
         <v>981</v>
       </c>
       <c r="O2" s="25"/>
@@ -4853,10 +4807,10 @@
       <c r="AF2" s="25">
         <v>174</v>
       </c>
-      <c r="AG2" s="68">
+      <c r="AG2" s="61">
         <v>28788</v>
       </c>
-      <c r="AH2" s="68">
+      <c r="AH2" s="61">
         <v>32838</v>
       </c>
       <c r="AI2" s="25">
@@ -4981,7 +4935,7 @@
       <c r="J4" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -5084,7 +5038,7 @@
       <c r="J5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -5644,7 +5598,7 @@
       <c r="J12" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -5741,7 +5695,7 @@
       <c r="J13" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L13" s="36" t="s">
@@ -5842,7 +5796,7 @@
       <c r="J14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L14" s="7" t="s">
@@ -5949,7 +5903,7 @@
       <c r="J15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L15" s="36" t="s">
@@ -6055,10 +6009,10 @@
       <c r="I16" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="J16" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L16" s="7" t="s">
@@ -6152,10 +6106,10 @@
       <c r="I17" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="J17" s="42" t="s">
         <v>701</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L17" s="36" t="s">
@@ -6241,7 +6195,7 @@
       <c r="J18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K18" s="58" t="s">
+      <c r="K18" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L18" s="36" t="s">
@@ -6337,7 +6291,7 @@
       <c r="J19" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="41" t="s">
         <v>1023</v>
       </c>
       <c r="L19" s="22" t="s">
@@ -7959,7 +7913,7 @@
       <c r="J37" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K37" s="58" t="s">
+      <c r="K37" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L37" s="7" t="s">
@@ -8636,7 +8590,7 @@
       <c r="J44" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K44" s="58" t="s">
+      <c r="K44" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L44" s="7" t="s">
@@ -8680,7 +8634,7 @@
       <c r="J45" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K45" s="58" t="s">
+      <c r="K45" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L45" s="7" t="s">
@@ -9668,7 +9622,7 @@
       <c r="J56" s="22" t="s">
         <v>1072</v>
       </c>
-      <c r="K56" s="59" t="s">
+      <c r="K56" s="41" t="s">
         <v>1024</v>
       </c>
       <c r="L56" s="22" t="s">
@@ -10700,13 +10654,13 @@
       <c r="B67" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="65" t="s">
+      <c r="C67" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="D67" s="66">
+      <c r="D67" s="59">
         <v>20961</v>
       </c>
-      <c r="E67" s="66">
+      <c r="E67" s="59">
         <v>24804</v>
       </c>
       <c r="F67" s="25">
@@ -10721,19 +10675,19 @@
       <c r="I67" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="J67" s="67" t="s">
+      <c r="J67" s="60" t="s">
         <v>944</v>
       </c>
-      <c r="K67" s="67" t="s">
+      <c r="K67" s="60" t="s">
         <v>1023</v>
       </c>
-      <c r="L67" s="72" t="s">
+      <c r="L67" s="66" t="s">
         <v>1202</v>
       </c>
-      <c r="M67" s="67" t="s">
+      <c r="M67" s="60" t="s">
         <v>1201</v>
       </c>
-      <c r="N67" s="67" t="s">
+      <c r="N67" s="60" t="s">
         <v>1205</v>
       </c>
       <c r="P67" s="25">
@@ -10754,10 +10708,10 @@
       <c r="AF67" s="25">
         <v>266</v>
       </c>
-      <c r="AG67" s="68">
+      <c r="AG67" s="61">
         <v>20961</v>
       </c>
-      <c r="AH67" s="68">
+      <c r="AH67" s="61">
         <v>24804</v>
       </c>
       <c r="AI67" s="25">
@@ -10906,7 +10860,7 @@
       <c r="J69" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="K69" s="58" t="s">
+      <c r="K69" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L69" s="7" t="s">
@@ -12108,7 +12062,7 @@
       <c r="M82" s="22" t="s">
         <v>1200</v>
       </c>
-      <c r="N82" s="60" t="s">
+      <c r="N82" s="58" t="s">
         <v>99</v>
       </c>
       <c r="O82" s="21"/>
@@ -12583,7 +12537,7 @@
       <c r="J87" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K87" s="58" t="s">
+      <c r="K87" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L87" s="7" t="s">
@@ -12652,7 +12606,7 @@
       <c r="J88" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K88" s="59" t="s">
+      <c r="K88" s="41" t="s">
         <v>1023</v>
       </c>
       <c r="L88" s="22" t="s">
@@ -12747,7 +12701,7 @@
       <c r="J89" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="K89" s="58" t="s">
+      <c r="K89" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L89" s="7" t="s">
@@ -13140,7 +13094,7 @@
       <c r="J93" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K93" s="58" t="s">
+      <c r="K93" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L93" s="7" t="s">
@@ -13808,80 +13762,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:41" s="61" customFormat="1" ht="17">
-      <c r="A101" s="61">
+    <row r="101" spans="1:41" s="25" customFormat="1" ht="17">
+      <c r="A101" s="25">
         <v>345</v>
       </c>
-      <c r="B101" s="61" t="s">
+      <c r="B101" s="25" t="s">
         <v>734</v>
       </c>
-      <c r="C101" s="61" t="s">
+      <c r="C101" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="D101" s="62">
+      <c r="D101" s="59">
         <v>38179</v>
       </c>
-      <c r="E101" s="62">
+      <c r="E101" s="59">
         <v>41004</v>
       </c>
-      <c r="F101" s="61">
+      <c r="F101" s="25">
         <v>2012</v>
       </c>
-      <c r="H101" s="61" t="s">
+      <c r="H101" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I101" s="61" t="s">
+      <c r="I101" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="J101" s="63" t="s">
+      <c r="J101" s="60" t="s">
         <v>624</v>
       </c>
-      <c r="K101" s="63" t="s">
+      <c r="K101" s="60" t="s">
         <v>1023</v>
       </c>
-      <c r="L101" s="63" t="s">
+      <c r="L101" s="60" t="s">
         <v>1194</v>
       </c>
-      <c r="M101" s="63" t="s">
+      <c r="M101" s="60" t="s">
         <v>1200</v>
       </c>
-      <c r="N101" s="63" t="s">
+      <c r="N101" s="60" t="s">
         <v>973</v>
       </c>
-      <c r="P101" s="61">
+      <c r="P101" s="25">
         <v>2012</v>
       </c>
-      <c r="AD101" s="61" t="s">
+      <c r="AD101" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AF101" s="61">
+      <c r="AF101" s="25">
         <v>890</v>
       </c>
-      <c r="AG101" s="64">
+      <c r="AG101" s="61">
         <v>38179</v>
       </c>
-      <c r="AH101" s="64">
+      <c r="AH101" s="61">
         <v>41004</v>
       </c>
-      <c r="AI101" s="61">
+      <c r="AI101" s="25">
         <v>6</v>
       </c>
-      <c r="AJ101" s="61" t="s">
+      <c r="AJ101" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AK101" s="61" t="s">
+      <c r="AK101" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="AL101" s="61">
+      <c r="AL101" s="25">
         <v>7.7291379999999998</v>
       </c>
-      <c r="AM101" s="61">
+      <c r="AM101" s="25">
         <v>8</v>
       </c>
-      <c r="AN101" s="61">
-        <v>1</v>
-      </c>
-      <c r="AO101" s="61">
+      <c r="AN101" s="25">
+        <v>1</v>
+      </c>
+      <c r="AO101" s="25">
         <v>1</v>
       </c>
     </row>
@@ -14397,7 +14351,7 @@
       <c r="J108" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="K108" s="58" t="s">
+      <c r="K108" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L108" s="36" t="s">
@@ -14477,7 +14431,7 @@
       <c r="J109" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K109" s="58" t="s">
+      <c r="K109" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L109" s="7" t="s">
@@ -14554,13 +14508,13 @@
       <c r="B110" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="C110" s="65" t="s">
+      <c r="C110" s="62" t="s">
         <v>738</v>
       </c>
-      <c r="D110" s="66">
+      <c r="D110" s="59">
         <v>37763</v>
       </c>
-      <c r="E110" s="66">
+      <c r="E110" s="59">
         <v>43240</v>
       </c>
       <c r="F110" s="25">
@@ -14575,19 +14529,19 @@
       <c r="I110" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="J110" s="67" t="s">
+      <c r="J110" s="60" t="s">
         <v>607</v>
       </c>
-      <c r="K110" s="67" t="s">
+      <c r="K110" s="60" t="s">
         <v>1023</v>
       </c>
-      <c r="L110" s="67" t="s">
+      <c r="L110" s="60" t="s">
         <v>1194</v>
       </c>
-      <c r="M110" s="67" t="s">
+      <c r="M110" s="60" t="s">
         <v>1201</v>
       </c>
-      <c r="N110" s="67" t="s">
+      <c r="N110" s="60" t="s">
         <v>973</v>
       </c>
       <c r="P110" s="25">
@@ -14599,10 +14553,10 @@
       <c r="AF110" s="25">
         <v>499</v>
       </c>
-      <c r="AG110" s="68">
+      <c r="AG110" s="61">
         <v>37763</v>
       </c>
-      <c r="AH110" s="68">
+      <c r="AH110" s="61">
         <v>43240</v>
       </c>
       <c r="AI110" s="25">
